--- a/simulation_data/iterative_algorithm/i_error_level_5_percent_water_80.xlsx
+++ b/simulation_data/iterative_algorithm/i_error_level_5_percent_water_80.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>89.96814912278231</v>
+        <v>89.93456051521679</v>
       </c>
       <c r="D2" t="n">
-        <v>9.346050190782956</v>
+        <v>9.04473950556778</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>88.36602972123215</v>
+        <v>87.95973121755493</v>
       </c>
       <c r="D3" t="n">
-        <v>9.216335092826462</v>
+        <v>8.450822499114455</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>89.60030862732114</v>
+        <v>88.15418821091754</v>
       </c>
       <c r="D4" t="n">
-        <v>9.139969220636646</v>
+        <v>8.79874599810247</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>86.04382495470938</v>
+        <v>86.94855004614161</v>
       </c>
       <c r="D5" t="n">
-        <v>9.236012912559193</v>
+        <v>8.441855248948192</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>84.45105238617438</v>
+        <v>85.60614683785566</v>
       </c>
       <c r="D6" t="n">
-        <v>8.425554050971471</v>
+        <v>8.024644304281964</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>83.72577765840937</v>
+        <v>86.34107413451275</v>
       </c>
       <c r="D7" t="n">
-        <v>9.218643626098974</v>
+        <v>8.316367385568942</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>84.02275182733884</v>
+        <v>84.89201137920439</v>
       </c>
       <c r="D8" t="n">
-        <v>8.99063645594908</v>
+        <v>7.95462736830674</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>82.35914045666193</v>
+        <v>82.34055259754568</v>
       </c>
       <c r="D9" t="n">
-        <v>10.43988069072586</v>
+        <v>9.355699853515912</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>81.41778073283933</v>
+        <v>81.98357360369026</v>
       </c>
       <c r="D10" t="n">
-        <v>8.099313526935264</v>
+        <v>8.952627544700443</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>80.67094676961891</v>
+        <v>81.73816145855277</v>
       </c>
       <c r="D11" t="n">
-        <v>9.766273084065205</v>
+        <v>8.680904096314425</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>79.69280010441858</v>
+        <v>80.48534824776485</v>
       </c>
       <c r="D12" t="n">
-        <v>8.491842402659215</v>
+        <v>8.97170710586744</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>79.4509647240957</v>
+        <v>76.46362148966965</v>
       </c>
       <c r="D13" t="n">
-        <v>9.381436305172276</v>
+        <v>8.793986713894601</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>77.9646115974035</v>
+        <v>76.44458401916302</v>
       </c>
       <c r="D14" t="n">
-        <v>9.470131539289987</v>
+        <v>8.517778417319589</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>78.19839694998718</v>
+        <v>76.05935842818489</v>
       </c>
       <c r="D15" t="n">
-        <v>9.692336916483727</v>
+        <v>8.531310096859213</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>75.52412305319713</v>
+        <v>75.03836864146058</v>
       </c>
       <c r="D16" t="n">
-        <v>10.085856468902</v>
+        <v>7.421515735744239</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>76.61047490368928</v>
+        <v>74.46538292565161</v>
       </c>
       <c r="D17" t="n">
-        <v>9.528194300824296</v>
+        <v>7.684102010208553</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>75.23848019642026</v>
+        <v>74.02449079731143</v>
       </c>
       <c r="D18" t="n">
-        <v>9.303759260434642</v>
+        <v>7.448098521882772</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>72.94319702766225</v>
+        <v>72.59267598067517</v>
       </c>
       <c r="D19" t="n">
-        <v>9.204712890752736</v>
+        <v>9.153309860569573</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>72.26006157781592</v>
+        <v>71.63340360252985</v>
       </c>
       <c r="D20" t="n">
-        <v>9.402040733999515</v>
+        <v>8.261100830492644</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>70.5732041479032</v>
+        <v>70.33447953273716</v>
       </c>
       <c r="D21" t="n">
-        <v>8.568495948073164</v>
+        <v>8.057884683462188</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>68.67914480479615</v>
+        <v>69.6698402307767</v>
       </c>
       <c r="D22" t="n">
-        <v>9.443625123003375</v>
+        <v>9.414046854220475</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>69.31438862023703</v>
+        <v>69.51467304103147</v>
       </c>
       <c r="D23" t="n">
-        <v>8.797628423498953</v>
+        <v>8.837946689754066</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>66.00615547626845</v>
+        <v>67.0779411149456</v>
       </c>
       <c r="D24" t="n">
-        <v>8.757337691424068</v>
+        <v>7.650535567669052</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>67.20191756931537</v>
+        <v>67.26881033806799</v>
       </c>
       <c r="D25" t="n">
-        <v>9.437779749116215</v>
+        <v>8.909514644597811</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>66.77814071250089</v>
+        <v>66.30009090950614</v>
       </c>
       <c r="D26" t="n">
-        <v>9.7757950332446</v>
+        <v>9.019671813719215</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>65.59800719526478</v>
+        <v>66.08525641781475</v>
       </c>
       <c r="D27" t="n">
-        <v>8.782051259431555</v>
+        <v>8.105348822556731</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>64.54692463949593</v>
+        <v>65.47343386191156</v>
       </c>
       <c r="D28" t="n">
-        <v>7.949817029070392</v>
+        <v>8.105483603196037</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>63.29055905558717</v>
+        <v>63.13796764412069</v>
       </c>
       <c r="D29" t="n">
-        <v>9.6732721560724</v>
+        <v>9.668257049055978</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>61.70612199865664</v>
+        <v>62.17715323071626</v>
       </c>
       <c r="D30" t="n">
-        <v>8.047342326760912</v>
+        <v>8.483076664910403</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>61.42706241018765</v>
+        <v>61.62394496333238</v>
       </c>
       <c r="D31" t="n">
-        <v>9.154105245608799</v>
+        <v>8.751840729946736</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>61.26859026639873</v>
+        <v>58.92903286382355</v>
       </c>
       <c r="D32" t="n">
-        <v>8.889197996327592</v>
+        <v>9.876245393732365</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>58.61898303623441</v>
+        <v>60.03528690908131</v>
       </c>
       <c r="D33" t="n">
-        <v>9.535485499600506</v>
+        <v>8.420522551585627</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>57.91525477848085</v>
+        <v>58.63482923820096</v>
       </c>
       <c r="D34" t="n">
-        <v>9.609856203134388</v>
+        <v>8.703175961590167</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>57.02210069033785</v>
+        <v>56.4269154653447</v>
       </c>
       <c r="D35" t="n">
-        <v>9.062808140826524</v>
+        <v>8.204240328797953</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>56.0276804408262</v>
+        <v>56.02036867164465</v>
       </c>
       <c r="D36" t="n">
-        <v>9.570559435361695</v>
+        <v>7.503610653072144</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>55.19059565344735</v>
+        <v>53.85641274237884</v>
       </c>
       <c r="D37" t="n">
-        <v>8.924844018877513</v>
+        <v>9.68726287860826</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>53.4343943702272</v>
+        <v>56.49223203789357</v>
       </c>
       <c r="D38" t="n">
-        <v>9.519977078068411</v>
+        <v>7.840723250119153</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>54.5722660395905</v>
+        <v>51.59340845206068</v>
       </c>
       <c r="D39" t="n">
-        <v>10.16587275256137</v>
+        <v>8.705547115454614</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>50.84310667528712</v>
+        <v>52.30547171495351</v>
       </c>
       <c r="D40" t="n">
-        <v>8.709008067705962</v>
+        <v>7.95897587549327</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>50.11053859332582</v>
+        <v>52.64121483075775</v>
       </c>
       <c r="D41" t="n">
-        <v>9.617401536942845</v>
+        <v>7.865543087955153</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>49.02290045744706</v>
+        <v>50.6782963016606</v>
       </c>
       <c r="D42" t="n">
-        <v>9.39433632738065</v>
+        <v>7.919740972048385</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>50.31882890732504</v>
+        <v>49.04200759610002</v>
       </c>
       <c r="D43" t="n">
-        <v>8.649871897658606</v>
+        <v>9.142969406662665</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>46.45480703059783</v>
+        <v>47.3211720180483</v>
       </c>
       <c r="D44" t="n">
-        <v>9.772330039986631</v>
+        <v>9.247374395580573</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>45.50012997687904</v>
+        <v>46.61141108978358</v>
       </c>
       <c r="D45" t="n">
-        <v>9.38096114018119</v>
+        <v>9.933500079391287</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>45.34713610917125</v>
+        <v>46.57749579259507</v>
       </c>
       <c r="D46" t="n">
-        <v>8.966582960233412</v>
+        <v>8.420990880133626</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>46.70294810467466</v>
+        <v>45.08413025673465</v>
       </c>
       <c r="D47" t="n">
-        <v>8.746489089453442</v>
+        <v>9.72430498216324</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>44.02367969117101</v>
+        <v>43.59993688698254</v>
       </c>
       <c r="D48" t="n">
-        <v>9.547260011979887</v>
+        <v>7.062180497069982</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>41.82549876734606</v>
+        <v>43.70529395564493</v>
       </c>
       <c r="D49" t="n">
-        <v>8.034165666334109</v>
+        <v>8.930609939358497</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>41.65599502469318</v>
+        <v>42.36452195823825</v>
       </c>
       <c r="D50" t="n">
-        <v>8.398428632023002</v>
+        <v>8.983833762898994</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>40.35101244969805</v>
+        <v>40.83566901792967</v>
       </c>
       <c r="D51" t="n">
-        <v>9.422681807122162</v>
+        <v>9.074353301256945</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>40.61284622320763</v>
+        <v>39.97417423930309</v>
       </c>
       <c r="D52" t="n">
-        <v>8.416799242684375</v>
+        <v>8.526701888600606</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>37.96452176896114</v>
+        <v>40.18232804202969</v>
       </c>
       <c r="D53" t="n">
-        <v>8.542795434630079</v>
+        <v>7.610642369927977</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>37.51200550935043</v>
+        <v>36.1364343356686</v>
       </c>
       <c r="D54" t="n">
-        <v>8.443763150067168</v>
+        <v>9.523392623176642</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>37.00105094316331</v>
+        <v>35.74439899730267</v>
       </c>
       <c r="D55" t="n">
-        <v>9.350132436394667</v>
+        <v>8.577812226361468</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>37.30541519580134</v>
+        <v>36.10970934504806</v>
       </c>
       <c r="D56" t="n">
-        <v>10.44641437133453</v>
+        <v>8.888575343251837</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>35.07404940939912</v>
+        <v>34.79700236823142</v>
       </c>
       <c r="D57" t="n">
-        <v>8.861328103422034</v>
+        <v>10.01828602446908</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>34.47999984388133</v>
+        <v>33.24812583242029</v>
       </c>
       <c r="D58" t="n">
-        <v>9.240792227451614</v>
+        <v>9.654862936637631</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>30.72914425378748</v>
+        <v>31.87313574573424</v>
       </c>
       <c r="D59" t="n">
-        <v>8.573492387588324</v>
+        <v>10.51974694094707</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>32.14921270012292</v>
+        <v>31.67034554793488</v>
       </c>
       <c r="D60" t="n">
-        <v>8.722765705133202</v>
+        <v>8.941238004813822</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>28.74349022117051</v>
+        <v>30.75233183393003</v>
       </c>
       <c r="D61" t="n">
-        <v>8.003344205697168</v>
+        <v>8.730679554066629</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>29.13532318910986</v>
+        <v>28.11323488481072</v>
       </c>
       <c r="D62" t="n">
-        <v>8.088986543790444</v>
+        <v>8.41233215274867</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>29.13451730902948</v>
+        <v>28.17217514771634</v>
       </c>
       <c r="D63" t="n">
-        <v>8.996261354092354</v>
+        <v>9.325629032930967</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>27.67690230957421</v>
+        <v>27.66015044325408</v>
       </c>
       <c r="D64" t="n">
-        <v>8.788500455241126</v>
+        <v>8.87314579395321</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>27.14745908184484</v>
+        <v>27.68247967120946</v>
       </c>
       <c r="D65" t="n">
-        <v>8.853791920050154</v>
+        <v>9.962648472480584</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>26.40200665273981</v>
+        <v>25.51136839852389</v>
       </c>
       <c r="D66" t="n">
-        <v>8.399559975329675</v>
+        <v>8.474278680385879</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>24.65601694906326</v>
+        <v>25.8333291722191</v>
       </c>
       <c r="D67" t="n">
-        <v>10.15203074557053</v>
+        <v>9.192979563855481</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>24.27651262517411</v>
+        <v>24.25061704982008</v>
       </c>
       <c r="D68" t="n">
-        <v>9.449361378545859</v>
+        <v>9.221313273999556</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>21.29558913642158</v>
+        <v>22.21027498970459</v>
       </c>
       <c r="D69" t="n">
-        <v>9.922540312725504</v>
+        <v>8.940655448057525</v>
       </c>
     </row>
   </sheetData>
